--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_3426.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_3426.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3426</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Shakib Al Hasan</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Orthodox</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2500</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2504</t>
+          <t>2504</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2505</t>
+          <t>2505</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2506</t>
+          <t>2506</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2527</t>
+          <t>2527</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2530</t>
+          <t>2530</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2531</t>
+          <t>2531</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -856,7 +921,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>30/11/2006</t>
@@ -864,7 +928,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2558</t>
+          <t>2558</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -916,7 +980,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2562</t>
+          <t>2562</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -968,7 +1032,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2564</t>
+          <t>2564</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1020,7 +1084,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2567</t>
+          <t>2567</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1072,7 +1136,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2568</t>
+          <t>2568</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1124,7 +1188,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2571</t>
+          <t>2571</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1176,7 +1240,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2573</t>
+          <t>2573</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1228,7 +1292,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2612</t>
+          <t>2612</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1280,7 +1344,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2618</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1332,7 +1396,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2623</t>
+          <t>2623</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1384,7 +1448,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2625</t>
+          <t>2625</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1436,7 +1500,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2635</t>
+          <t>2635</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1488,7 +1552,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2637</t>
+          <t>2637</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1540,7 +1604,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2645</t>
+          <t>2645</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1592,7 +1656,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2653</t>
+          <t>2653</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1644,7 +1708,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2661</t>
+          <t>2661</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1696,7 +1760,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2666</t>
+          <t>2666</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1748,7 +1812,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2668</t>
+          <t>2668</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1800,7 +1864,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2671</t>
+          <t>2671</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1852,7 +1916,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2675</t>
+          <t>2675</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1904,7 +1968,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2679</t>
+          <t>2679</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1956,7 +2020,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2683</t>
+          <t>2683</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2008,7 +2072,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2689</t>
+          <t>2689</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2060,7 +2124,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2690</t>
+          <t>2690</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2112,7 +2176,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2716</t>
+          <t>2716</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2164,7 +2228,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2717</t>
+          <t>2717</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2216,7 +2280,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2718</t>
+          <t>2718</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2268,7 +2332,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2770</t>
+          <t>2770</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2320,7 +2384,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2771</t>
+          <t>2771</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2372,7 +2436,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2772</t>
+          <t>2772</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2424,7 +2488,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2802</t>
+          <t>2802</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2476,7 +2540,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2803</t>
+          <t>2803</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2528,7 +2592,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2804</t>
+          <t>2804</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2568,7 +2632,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>18/03/2008</t>
@@ -2576,7 +2639,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2805</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2628,7 +2691,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2806</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2680,7 +2743,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2807</t>
+          <t>2807</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2732,7 +2795,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2808</t>
+          <t>2808</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2784,7 +2847,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2810</t>
+          <t>2810</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2836,7 +2899,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2812</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2888,7 +2951,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2814</t>
+          <t>2814</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2940,7 +3003,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2815</t>
+          <t>2815</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2992,7 +3055,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2875</t>
+          <t>2875</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3044,7 +3107,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2877</t>
+          <t>2877</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3096,7 +3159,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2879</t>
+          <t>2879</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3148,7 +3211,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2880</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3200,7 +3263,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2881</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3252,7 +3315,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2882</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3304,7 +3367,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2892</t>
+          <t>2892</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3356,7 +3419,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2893</t>
+          <t>2893</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3408,7 +3471,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2912</t>
+          <t>2912</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3460,7 +3523,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2915</t>
+          <t>2915</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3512,7 +3575,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2916</t>
+          <t>2916</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3564,7 +3627,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2919</t>
+          <t>2919</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3616,7 +3679,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2921</t>
+          <t>2921</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3668,7 +3731,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2923</t>
+          <t>2923</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3720,7 +3783,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2986</t>
+          <t>2986</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3772,7 +3835,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2987</t>
+          <t>2987</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3824,7 +3887,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2989</t>
+          <t>2989</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3864,7 +3927,6 @@
           <t>66</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>09/08/2009</t>
@@ -3872,7 +3934,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2994</t>
+          <t>2994</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3924,7 +3986,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2995</t>
+          <t>2995</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3976,7 +4038,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2996</t>
+          <t>2996</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4028,7 +4090,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2997</t>
+          <t>2997</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4080,7 +4142,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2998</t>
+          <t>2998</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4132,7 +4194,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3041</t>
+          <t>3041</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4184,7 +4246,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3043</t>
+          <t>3043</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4236,7 +4298,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3044</t>
+          <t>3044</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4276,7 +4338,6 @@
           <t>74</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>03/11/2009</t>
@@ -4284,7 +4345,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3048</t>
+          <t>3048</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4336,7 +4397,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3049</t>
+          <t>3049</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4388,7 +4449,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3067</t>
+          <t>3067</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4440,7 +4501,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3069</t>
+          <t>3069</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4492,7 +4553,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3070</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4544,7 +4605,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3072</t>
+          <t>3072</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4596,7 +4657,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3079</t>
+          <t>3079</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4648,7 +4709,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3081</t>
+          <t>3081</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4700,7 +4761,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3083</t>
+          <t>3083</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4752,7 +4813,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3094</t>
+          <t>3094</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4804,7 +4865,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3095</t>
+          <t>3095</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4856,7 +4917,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3098</t>
+          <t>3098</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4908,7 +4969,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3123</t>
+          <t>3123</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4960,7 +5021,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3125</t>
+          <t>3125</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5012,7 +5073,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3128</t>
+          <t>3128</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5064,7 +5125,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3148</t>
+          <t>3148</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5116,7 +5177,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3155</t>
+          <t>3155</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5168,7 +5229,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3156</t>
+          <t>3156</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5220,7 +5281,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3157</t>
+          <t>3157</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5272,7 +5333,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3158</t>
+          <t>3158</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5324,7 +5385,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3160</t>
+          <t>3160</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5376,7 +5437,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3182</t>
+          <t>3182</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5428,7 +5489,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3186</t>
+          <t>3186</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5480,7 +5541,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3188</t>
+          <t>3188</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5532,7 +5593,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3190</t>
+          <t>3190</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5584,7 +5645,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3205</t>
+          <t>3205</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5636,7 +5697,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3207</t>
+          <t>3207</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5688,7 +5749,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3209</t>
+          <t>3209</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5740,7 +5801,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3213</t>
+          <t>3213</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5792,7 +5853,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3235</t>
+          <t>3235</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5844,7 +5905,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3243</t>
+          <t>3243</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5896,7 +5957,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3253</t>
+          <t>3253</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5948,7 +6009,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3262</t>
+          <t>3262</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -6000,7 +6061,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3266</t>
+          <t>3266</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6052,7 +6113,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3273</t>
+          <t>3273</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6104,7 +6165,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3284</t>
+          <t>3284</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6156,7 +6217,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3285</t>
+          <t>3285</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6208,7 +6269,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3286</t>
+          <t>3286</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6260,7 +6321,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3312</t>
+          <t>3312</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6312,7 +6373,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3313</t>
+          <t>3313</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6364,7 +6425,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3315</t>
+          <t>3315</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6416,7 +6477,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3317</t>
+          <t>3317</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6468,7 +6529,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3319</t>
+          <t>3319</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6520,7 +6581,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3334</t>
+          <t>3334</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6572,7 +6633,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3336</t>
+          <t>3336</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6612,7 +6673,6 @@
           <t>119</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
           <t>18/10/2011</t>
@@ -6620,7 +6680,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3338</t>
+          <t>3338</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6672,7 +6732,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3354</t>
+          <t>3354</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6724,7 +6784,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3356</t>
+          <t>3356</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6776,7 +6836,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3358</t>
+          <t>3358</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6828,7 +6888,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3394</t>
+          <t>3394</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6880,7 +6940,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3397</t>
+          <t>3397</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6932,7 +6992,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3401</t>
+          <t>3401</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6984,7 +7044,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3403</t>
+          <t>3403</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7036,7 +7096,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3494</t>
+          <t>3494</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7088,7 +7148,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3495</t>
+          <t>3495</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7140,7 +7200,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3496</t>
+          <t>3496</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7192,7 +7252,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3614</t>
+          <t>3614</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7244,7 +7304,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3615</t>
+          <t>3615</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7296,7 +7356,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3627</t>
+          <t>3627</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7348,7 +7408,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3630</t>
+          <t>3630</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7400,7 +7460,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3643</t>
+          <t>3643</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7452,7 +7512,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3644</t>
+          <t>3644</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7492,7 +7552,6 @@
           <t>136</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr">
         <is>
           <t>19/06/2014</t>
@@ -7500,7 +7559,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3645</t>
+          <t>3645</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7552,7 +7611,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3699</t>
+          <t>3699</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7604,7 +7663,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3701</t>
+          <t>3701</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7656,7 +7715,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3702</t>
+          <t>3702</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7708,7 +7767,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3704</t>
+          <t>3704</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7760,7 +7819,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3708</t>
+          <t>3708</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7812,7 +7871,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3754</t>
+          <t>3754</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7864,7 +7923,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3765</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7916,7 +7975,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3774</t>
+          <t>3774</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7968,7 +8027,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3780</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -8020,7 +8079,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3784</t>
+          <t>3784</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8072,7 +8131,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3791</t>
+          <t>3791</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8124,7 +8183,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3797</t>
+          <t>3797</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8176,7 +8235,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3798</t>
+          <t>3798</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8216,7 +8275,6 @@
           <t>150</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr">
         <is>
           <t>22/04/2015</t>
@@ -8224,7 +8282,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3799</t>
+          <t>3799</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8276,7 +8334,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3808</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8328,7 +8386,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3810</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8380,7 +8438,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3811</t>
+          <t>3811</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8432,7 +8490,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3813</t>
+          <t>3813</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8484,7 +8542,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3816</t>
+          <t>3816</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8524,7 +8582,6 @@
           <t>156</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr">
         <is>
           <t>15/07/2015</t>
@@ -8532,7 +8589,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3818</t>
+          <t>3818</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8584,7 +8641,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3854</t>
+          <t>3854</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8636,7 +8693,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3936</t>
+          <t>3936</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8688,7 +8745,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3938</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8740,7 +8797,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3941</t>
+          <t>3941</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8792,7 +8849,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3946</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8844,7 +8901,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3948</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8896,7 +8953,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3949</t>
+          <t>3949</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8948,7 +9005,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3969</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -9000,7 +9057,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3970</t>
+          <t>3970</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -9052,7 +9109,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3971</t>
+          <t>3971</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -9104,7 +9161,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4011</t>
+          <t>4011</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -9144,7 +9201,6 @@
           <t>168</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr">
         <is>
           <t>28/03/2017</t>
@@ -9152,7 +9208,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4012</t>
+          <t>4012</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -9204,7 +9260,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4014</t>
+          <t>4014</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -9256,7 +9312,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4022</t>
+          <t>4022</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -9308,7 +9364,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4024</t>
+          <t>4024</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -9348,7 +9404,6 @@
           <t>172</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr"/>
       <c r="C173" t="inlineStr">
         <is>
           <t>19/05/2017</t>
@@ -9356,7 +9411,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4025</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -9408,7 +9463,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4027</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -9460,7 +9515,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -9512,7 +9567,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4035</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -9564,7 +9619,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -9616,7 +9671,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -9668,7 +9723,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4080</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -9720,7 +9775,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4083</t>
+          <t>4083</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -9772,7 +9827,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4086</t>
+          <t>4086</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -9824,7 +9879,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4109</t>
+          <t>4109</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -9876,7 +9931,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4116</t>
+          <t>4116</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -9928,7 +9983,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4121</t>
+          <t>4121</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -9980,7 +10035,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4122</t>
+          <t>4122</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -10032,7 +10087,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -10084,7 +10139,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4179</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -10136,7 +10191,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4180</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -10188,7 +10243,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4181</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -10240,7 +10295,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4193</t>
+          <t>4193</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -10292,7 +10347,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4198</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -10344,7 +10399,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -10396,7 +10451,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4202</t>
+          <t>4202</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -10448,7 +10503,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4228</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -10500,7 +10555,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4229</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -10540,7 +10595,6 @@
           <t>195</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr">
         <is>
           <t>14/12/2018</t>
@@ -10548,7 +10602,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4230</t>
+          <t>4230</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -10600,7 +10654,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4286</t>
+          <t>4286</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -10652,7 +10706,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4293</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -10704,7 +10758,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4295</t>
+          <t>4295</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -10756,7 +10810,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4307</t>
+          <t>4307</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -10808,7 +10862,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -10860,7 +10914,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -10912,7 +10966,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -10964,7 +11018,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4329</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -11016,7 +11070,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4335</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -11068,7 +11122,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -11120,7 +11174,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -11172,7 +11226,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4443</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -11224,7 +11278,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4445</t>
+          <t>4445</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -11276,7 +11330,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4447</t>
+          <t>4447</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -11328,7 +11382,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4463</t>
+          <t>4463</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -11380,7 +11434,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4464</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -11432,7 +11486,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4465</t>
+          <t>4465</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -11484,7 +11538,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4477</t>
+          <t>4477</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -11536,7 +11590,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4479</t>
+          <t>4479</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -11588,7 +11642,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4481</t>
+          <t>4481</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -11640,7 +11694,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4537</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -11692,7 +11746,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4538</t>
+          <t>4538</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -11744,7 +11798,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4539</t>
+          <t>4539</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -11796,7 +11850,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4550</t>
+          <t>4550</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -11848,7 +11902,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4557</t>
+          <t>4557</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -11900,7 +11954,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4559</t>
+          <t>4559</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -11952,7 +12006,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4679</t>
+          <t>4679</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -12004,7 +12058,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4682</t>
+          <t>4682</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -12056,7 +12110,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4685</t>
+          <t>4685</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -12108,7 +12162,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4711</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -12160,7 +12214,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4713</t>
+          <t>4713</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -12212,7 +12266,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4717</t>
+          <t>4717</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -12264,7 +12318,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4726</t>
+          <t>4726</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -12316,7 +12370,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4729</t>
+          <t>4729</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -12356,7 +12410,6 @@
           <t>230</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr"/>
       <c r="C231" t="inlineStr">
         <is>
           <t>23/03/2023</t>
@@ -12364,7 +12417,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4734</t>
+          <t>4734</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -12403,7 +12456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12425,7 +12478,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -12462,7 +12515,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2500</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -12499,7 +12552,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2504</t>
+          <t>2504</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -12536,7 +12589,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2505</t>
+          <t>2505</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -12573,7 +12626,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2506</t>
+          <t>2506</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -12610,7 +12663,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2527</t>
+          <t>2527</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -12647,7 +12700,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2530</t>
+          <t>2530</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -12684,7 +12737,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2531</t>
+          <t>2531</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -12721,7 +12774,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2558</t>
+          <t>2558</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -12758,7 +12811,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2562</t>
+          <t>2562</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -12795,7 +12848,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2564</t>
+          <t>2564</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -12832,7 +12885,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2567</t>
+          <t>2567</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -12869,7 +12922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2568</t>
+          <t>2568</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -12906,7 +12959,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2571</t>
+          <t>2571</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -12943,7 +12996,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2573</t>
+          <t>2573</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -12980,7 +13033,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2612</t>
+          <t>2612</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -13017,7 +13070,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2618</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -13054,7 +13107,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2623</t>
+          <t>2623</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -13091,7 +13144,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2625</t>
+          <t>2625</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -13128,7 +13181,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2635</t>
+          <t>2635</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -13165,7 +13218,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2637</t>
+          <t>2637</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -13202,7 +13255,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2645</t>
+          <t>2645</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -13239,7 +13292,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2653</t>
+          <t>2653</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -13276,7 +13329,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2661</t>
+          <t>2661</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -13313,7 +13366,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2666</t>
+          <t>2666</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -13350,7 +13403,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2668</t>
+          <t>2668</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -13387,7 +13440,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2671</t>
+          <t>2671</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -13424,7 +13477,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2675</t>
+          <t>2675</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -13461,7 +13514,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2679</t>
+          <t>2679</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -13498,7 +13551,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2683</t>
+          <t>2683</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -13535,7 +13588,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2689</t>
+          <t>2689</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -13572,7 +13625,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2690</t>
+          <t>2690</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -13609,7 +13662,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2716</t>
+          <t>2716</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -13646,7 +13699,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2718</t>
+          <t>2718</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -13683,7 +13736,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2770</t>
+          <t>2770</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -13720,7 +13773,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2771</t>
+          <t>2771</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -13757,7 +13810,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2772</t>
+          <t>2772</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -13794,7 +13847,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2802</t>
+          <t>2802</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -13831,7 +13884,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2803</t>
+          <t>2803</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -13868,7 +13921,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2804</t>
+          <t>2804</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -13905,7 +13958,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2805</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -13942,7 +13995,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2806</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -13979,7 +14032,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2807</t>
+          <t>2807</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -14016,7 +14069,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2808</t>
+          <t>2808</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -14053,7 +14106,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2810</t>
+          <t>2810</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -14090,7 +14143,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2812</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -14127,7 +14180,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2814</t>
+          <t>2814</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -14164,7 +14217,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2815</t>
+          <t>2815</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -14201,7 +14254,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2875</t>
+          <t>2875</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -14238,7 +14291,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2877</t>
+          <t>2877</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -14275,7 +14328,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2879</t>
+          <t>2879</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -14312,7 +14365,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2880</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -14349,7 +14402,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2881</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -14386,7 +14439,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2882</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -14423,7 +14476,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2892</t>
+          <t>2892</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -14460,7 +14513,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2893</t>
+          <t>2893</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -14497,7 +14550,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2912</t>
+          <t>2912</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -14534,7 +14587,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2915</t>
+          <t>2915</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -14571,7 +14624,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2916</t>
+          <t>2916</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -14608,7 +14661,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2919</t>
+          <t>2919</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -14645,7 +14698,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2921</t>
+          <t>2921</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -14682,7 +14735,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2923</t>
+          <t>2923</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -14719,7 +14772,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2986</t>
+          <t>2986</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -14756,7 +14809,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2987</t>
+          <t>2987</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -14793,7 +14846,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2989</t>
+          <t>2989</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -14830,7 +14883,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2994</t>
+          <t>2994</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -14867,7 +14920,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2995</t>
+          <t>2995</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -14904,7 +14957,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2996</t>
+          <t>2996</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -14941,7 +14994,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2997</t>
+          <t>2997</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -14978,7 +15031,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2998</t>
+          <t>2998</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -15015,7 +15068,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3041</t>
+          <t>3041</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -15052,7 +15105,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3043</t>
+          <t>3043</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -15089,7 +15142,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3044</t>
+          <t>3044</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -15126,7 +15179,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3048</t>
+          <t>3048</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -15163,7 +15216,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3049</t>
+          <t>3049</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -15200,7 +15253,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3067</t>
+          <t>3067</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -15237,7 +15290,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3069</t>
+          <t>3069</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -15274,7 +15327,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3070</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -15311,7 +15364,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3072</t>
+          <t>3072</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -15348,7 +15401,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3079</t>
+          <t>3079</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -15385,7 +15438,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3081</t>
+          <t>3081</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -15422,7 +15475,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3083</t>
+          <t>3083</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -15459,7 +15512,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3094</t>
+          <t>3094</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -15496,7 +15549,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3095</t>
+          <t>3095</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -15533,7 +15586,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3098</t>
+          <t>3098</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -15570,7 +15623,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3123</t>
+          <t>3123</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -15607,7 +15660,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3125</t>
+          <t>3125</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -15644,7 +15697,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3128</t>
+          <t>3128</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -15681,7 +15734,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3148</t>
+          <t>3148</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -15718,7 +15771,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3155</t>
+          <t>3155</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -15755,7 +15808,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3156</t>
+          <t>3156</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -15792,7 +15845,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3157</t>
+          <t>3157</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -15829,7 +15882,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3158</t>
+          <t>3158</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -15866,7 +15919,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3160</t>
+          <t>3160</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -15903,7 +15956,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3182</t>
+          <t>3182</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -15940,7 +15993,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3186</t>
+          <t>3186</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -15977,7 +16030,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3188</t>
+          <t>3188</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -16014,7 +16067,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3190</t>
+          <t>3190</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -16051,7 +16104,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3205</t>
+          <t>3205</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -16088,7 +16141,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3207</t>
+          <t>3207</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -16125,7 +16178,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3209</t>
+          <t>3209</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -16162,7 +16215,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3213</t>
+          <t>3213</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -16199,7 +16252,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3235</t>
+          <t>3235</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -16236,7 +16289,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3243</t>
+          <t>3243</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -16273,7 +16326,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3253</t>
+          <t>3253</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -16310,7 +16363,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3262</t>
+          <t>3262</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -16347,7 +16400,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3266</t>
+          <t>3266</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -16384,7 +16437,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3273</t>
+          <t>3273</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -16421,7 +16474,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3284</t>
+          <t>3284</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -16458,7 +16511,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3285</t>
+          <t>3285</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -16495,7 +16548,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3286</t>
+          <t>3286</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -16532,7 +16585,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3312</t>
+          <t>3312</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -16569,7 +16622,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3313</t>
+          <t>3313</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -16606,7 +16659,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3315</t>
+          <t>3315</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -16643,7 +16696,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3317</t>
+          <t>3317</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -16680,7 +16733,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3319</t>
+          <t>3319</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -16717,7 +16770,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3334</t>
+          <t>3334</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -16754,7 +16807,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3336</t>
+          <t>3336</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -16791,7 +16844,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3338</t>
+          <t>3338</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -16828,7 +16881,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3354</t>
+          <t>3354</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -16865,7 +16918,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3356</t>
+          <t>3356</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -16902,7 +16955,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3358</t>
+          <t>3358</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -16939,7 +16992,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3394</t>
+          <t>3394</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -16976,7 +17029,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3397</t>
+          <t>3397</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -17013,7 +17066,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3401</t>
+          <t>3401</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -17050,7 +17103,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3403</t>
+          <t>3403</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -17087,7 +17140,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3494</t>
+          <t>3494</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -17124,7 +17177,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3495</t>
+          <t>3495</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -17161,7 +17214,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3496</t>
+          <t>3496</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -17198,7 +17251,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3614</t>
+          <t>3614</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -17235,7 +17288,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3615</t>
+          <t>3615</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -17272,7 +17325,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3627</t>
+          <t>3627</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -17309,7 +17362,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3630</t>
+          <t>3630</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -17346,7 +17399,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3643</t>
+          <t>3643</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -17383,7 +17436,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3644</t>
+          <t>3644</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -17420,7 +17473,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3645</t>
+          <t>3645</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -17457,7 +17510,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3699</t>
+          <t>3699</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -17494,7 +17547,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3701</t>
+          <t>3701</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -17531,7 +17584,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3702</t>
+          <t>3702</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -17568,7 +17621,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3704</t>
+          <t>3704</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -17605,7 +17658,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3708</t>
+          <t>3708</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -17642,7 +17695,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3754</t>
+          <t>3754</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -17679,7 +17732,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3765</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -17716,7 +17769,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3774</t>
+          <t>3774</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -17753,7 +17806,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3780</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -17790,7 +17843,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3784</t>
+          <t>3784</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -17827,7 +17880,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3791</t>
+          <t>3791</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -17864,7 +17917,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3797</t>
+          <t>3797</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -17901,7 +17954,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3798</t>
+          <t>3798</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -17938,7 +17991,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3799</t>
+          <t>3799</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -17975,7 +18028,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3808</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -18012,7 +18065,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3810</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -18049,7 +18102,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3811</t>
+          <t>3811</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -18086,7 +18139,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3813</t>
+          <t>3813</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -18123,7 +18176,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3816</t>
+          <t>3816</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -18160,7 +18213,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3818</t>
+          <t>3818</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -18197,7 +18250,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3854</t>
+          <t>3854</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -18234,7 +18287,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3936</t>
+          <t>3936</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -18271,7 +18324,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3938</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -18308,7 +18361,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3941</t>
+          <t>3941</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -18345,7 +18398,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3946</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -18382,7 +18435,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3948</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -18419,7 +18472,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3949</t>
+          <t>3949</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -18456,7 +18509,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3969</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -18493,7 +18546,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3970</t>
+          <t>3970</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -18530,7 +18583,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3971</t>
+          <t>3971</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -18567,7 +18620,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4011</t>
+          <t>4011</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -18604,7 +18657,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4012</t>
+          <t>4012</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -18641,7 +18694,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4014</t>
+          <t>4014</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -18678,7 +18731,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4024</t>
+          <t>4024</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -18715,7 +18768,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4025</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -18752,7 +18805,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4027</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -18789,7 +18842,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -18826,7 +18879,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -18863,7 +18916,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -18900,7 +18953,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4080</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -18937,7 +18990,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4083</t>
+          <t>4083</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -18974,7 +19027,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4086</t>
+          <t>4086</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -19011,7 +19064,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4109</t>
+          <t>4109</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -19048,7 +19101,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4116</t>
+          <t>4116</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -19085,7 +19138,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4121</t>
+          <t>4121</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -19122,7 +19175,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4122</t>
+          <t>4122</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -19159,7 +19212,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -19196,7 +19249,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4179</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -19233,7 +19286,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4180</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -19270,7 +19323,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4181</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -19307,7 +19360,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4193</t>
+          <t>4193</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -19344,7 +19397,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4198</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -19381,7 +19434,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -19418,7 +19471,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4202</t>
+          <t>4202</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -19455,7 +19508,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4228</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -19492,7 +19545,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4229</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -19529,7 +19582,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4230</t>
+          <t>4230</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -19566,7 +19619,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4286</t>
+          <t>4286</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -19603,7 +19656,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4293</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -19640,7 +19693,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4295</t>
+          <t>4295</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -19677,7 +19730,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4307</t>
+          <t>4307</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -19714,7 +19767,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -19751,7 +19804,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -19788,7 +19841,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -19825,7 +19878,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4329</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -19862,7 +19915,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4335</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -19899,7 +19952,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -19936,7 +19989,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -19973,7 +20026,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4443</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -20010,7 +20063,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4445</t>
+          <t>4445</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -20047,7 +20100,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4447</t>
+          <t>4447</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -20084,7 +20137,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4463</t>
+          <t>4463</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -20121,7 +20174,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4464</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -20158,7 +20211,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4465</t>
+          <t>4465</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -20195,7 +20248,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4477</t>
+          <t>4477</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -20232,7 +20285,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4479</t>
+          <t>4479</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -20269,7 +20322,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4481</t>
+          <t>4481</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -20306,7 +20359,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4537</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -20343,7 +20396,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4538</t>
+          <t>4538</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -20380,7 +20433,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4539</t>
+          <t>4539</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -20417,7 +20470,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4550</t>
+          <t>4550</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -20454,7 +20507,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4557</t>
+          <t>4557</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -20491,7 +20544,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4559</t>
+          <t>4559</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -20528,7 +20581,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4679</t>
+          <t>4679</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -20565,7 +20618,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4682</t>
+          <t>4682</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -20602,7 +20655,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4685</t>
+          <t>4685</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -20639,7 +20692,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4711</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -20676,7 +20729,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4713</t>
+          <t>4713</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -20713,7 +20766,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4717</t>
+          <t>4717</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -20750,7 +20803,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4726</t>
+          <t>4726</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -20776,6 +20829,571 @@
       <c r="G226" t="inlineStr">
         <is>
           <t>1/23</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4464</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4465</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2.12%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6.88%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>39.67%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4481</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9.93%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4.57%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>15.63%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.52%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>11.54%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4679</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>15.51%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2.95%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3.83%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4713</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.90%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4717</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30.49%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4726</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4729</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4734</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_3426.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_3426.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20889,10 +20890,6 @@
           <t>4464</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -21055,10 +21052,6 @@
           <t>4538</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -21144,7 +21137,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -21247,10 +21239,6 @@
           <t>4685</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -21353,10 +21341,6 @@
           <t>4726</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -21369,10 +21353,6 @@
           <t>4729</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -21388,14 +21368,343 @@
       <c r="B21" t="n">
         <v>5</v>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4447</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4463</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4464</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4465</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4481</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4679</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4713</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4717</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4726</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_3426.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_3426.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -922,6 +920,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>30/11/2006</t>
@@ -2633,6 +2632,7 @@
           <t>41</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>18/03/2008</t>
@@ -3928,6 +3928,7 @@
           <t>66</t>
         </is>
       </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>09/08/2009</t>
@@ -4339,6 +4340,7 @@
           <t>74</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>03/11/2009</t>
@@ -6674,6 +6676,7 @@
           <t>119</t>
         </is>
       </c>
+      <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
           <t>18/10/2011</t>
@@ -7553,6 +7556,7 @@
           <t>136</t>
         </is>
       </c>
+      <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr">
         <is>
           <t>19/06/2014</t>
@@ -7565,7 +7569,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -8276,6 +8280,7 @@
           <t>150</t>
         </is>
       </c>
+      <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr">
         <is>
           <t>22/04/2015</t>
@@ -8583,6 +8588,7 @@
           <t>156</t>
         </is>
       </c>
+      <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr">
         <is>
           <t>15/07/2015</t>
@@ -9202,6 +9208,7 @@
           <t>168</t>
         </is>
       </c>
+      <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr">
         <is>
           <t>28/03/2017</t>
@@ -9214,7 +9221,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -9405,6 +9412,7 @@
           <t>172</t>
         </is>
       </c>
+      <c r="B173" t="inlineStr"/>
       <c r="C173" t="inlineStr">
         <is>
           <t>19/05/2017</t>
@@ -10596,6 +10604,7 @@
           <t>195</t>
         </is>
       </c>
+      <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr">
         <is>
           <t>14/12/2018</t>
@@ -12411,6 +12420,7 @@
           <t>230</t>
         </is>
       </c>
+      <c r="B231" t="inlineStr"/>
       <c r="C231" t="inlineStr">
         <is>
           <t>23/03/2023</t>
@@ -20836,877 +20846,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4464</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4465</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2.12%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4477</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6.88%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4479</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>39.67%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4481</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>9.93%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4537</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.57%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4538</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4539</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>15.63%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4550</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>24.52%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>11.54%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4679</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>15.51%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4682</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.95%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4685</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4711</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.83%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4713</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>29.90%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4717</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>30.49%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4726</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4729</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4734</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4447</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4463</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4464</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4465</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4477</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4479</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4481</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4537</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4538</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4539</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4550</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4679</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4682</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4685</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4711</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4713</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4717</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4726</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>